--- a/Linear Programming/LP Problem Formulation.xlsx
+++ b/Linear Programming/LP Problem Formulation.xlsx
@@ -5,58 +5,61 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josh/Desktop/Macbook Working Files/Git Repos/630-SOUTHWEST-SCHEDULING/Prescriptive_Analytics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d5e3b67968a0785a/Desktop Files/Textbooks and Syllabi/CSUN Semester 7/BANA630/Project Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B8EF4E-45CB-F742-BA26-5495C2CB34CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="316" documentId="13_ncr:1_{07B8EF4E-45CB-F742-BA26-5495C2CB34CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0100764A-3E68-4144-8FF7-C47052654EE5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15420" windowHeight="18880" xr2:uid="{075D1FD5-BF1F-2F45-81E3-46FB0940286A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15420" windowHeight="18880" firstSheet="1" activeTab="3" xr2:uid="{075D1FD5-BF1F-2F45-81E3-46FB0940286A}"/>
   </bookViews>
   <sheets>
-    <sheet name="LP Problem" sheetId="2" r:id="rId1"/>
+    <sheet name="Answer Report 1" sheetId="11" r:id="rId1"/>
+    <sheet name="Sensitivity Report 1" sheetId="12" r:id="rId2"/>
+    <sheet name="Limits Report 1" sheetId="13" r:id="rId3"/>
+    <sheet name="LP Problem" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'LP Problem'!$E$23:$E$57</definedName>
-    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'LP Problem'!$C$11:$C$19</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'LP Problem'!$C$3:$C$7</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'LP Problem'!$C$8</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'LP Problem'!$E$23:$E$57</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'LP Problem'!$E$23:$E$57</definedName>
-    <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">5</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'LP Problem'!$F$58</definedName>
-    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel4" localSheetId="0" hidden="1">4</definedName>
-    <definedName name="solver_rel5" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'LP Problem'!$E$11:$E$19</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'LP Problem'!$E$3:$E$7</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'LP Problem'!$E$8</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">"integer"</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'LP Problem'!$G$23:$G$57</definedName>
-    <definedName name="solver_rlx" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'LP Problem'!$E$23:$E$57</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'LP Problem'!$C$11:$C$19</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'LP Problem'!$C$3:$C$7</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'LP Problem'!$C$8</definedName>
+    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'LP Problem'!$E$23:$E$57</definedName>
+    <definedName name="solver_lhs5" localSheetId="3" hidden="1">'LP Problem'!$E$23:$E$57</definedName>
+    <definedName name="solver_lin" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">5</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'LP Problem'!$F$58</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="3" hidden="1">4</definedName>
+    <definedName name="solver_rel5" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">'LP Problem'!$E$11:$E$19</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">'LP Problem'!$E$3:$E$7</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">'LP Problem'!$E$8</definedName>
+    <definedName name="solver_rhs4" localSheetId="3" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs5" localSheetId="3" hidden="1">'LP Problem'!$G$23:$G$57</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -79,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="237">
   <si>
     <t>IATA Code</t>
   </si>
@@ -163,13 +166,640 @@
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>Worksheet: [LP Problem Formulation.xlsx]LP Problem</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Cell Value</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>$C$19</t>
+  </si>
+  <si>
+    <t>MIA Predicted Demand</t>
+  </si>
+  <si>
+    <t>$C$19&gt;=$E$19</t>
+  </si>
+  <si>
+    <t>$E$26</t>
+  </si>
+  <si>
+    <t>MIA Decision Variable</t>
+  </si>
+  <si>
+    <t>$E$26&gt;=$G$26</t>
+  </si>
+  <si>
+    <t>Binding</t>
+  </si>
+  <si>
+    <t>$E$34</t>
+  </si>
+  <si>
+    <t>$E$34&gt;=$G$34</t>
+  </si>
+  <si>
+    <t>$E$42</t>
+  </si>
+  <si>
+    <t>$E$42&gt;=$G$42</t>
+  </si>
+  <si>
+    <t>$E$49</t>
+  </si>
+  <si>
+    <t>$E$49&gt;=$G$49</t>
+  </si>
+  <si>
+    <t>$E$23</t>
+  </si>
+  <si>
+    <t>CHS Decision Variable</t>
+  </si>
+  <si>
+    <t>$E$23&gt;=$G$23</t>
+  </si>
+  <si>
+    <t>$E$24</t>
+  </si>
+  <si>
+    <t>LAX Decision Variable</t>
+  </si>
+  <si>
+    <t>$E$24&gt;=$G$24</t>
+  </si>
+  <si>
+    <t>$E$25</t>
+  </si>
+  <si>
+    <t>LGA Decision Variable</t>
+  </si>
+  <si>
+    <t>$E$25&gt;=$G$25</t>
+  </si>
+  <si>
+    <t>$E$27</t>
+  </si>
+  <si>
+    <t>OKC Decision Variable</t>
+  </si>
+  <si>
+    <t>$E$27&gt;=$G$27</t>
+  </si>
+  <si>
+    <t>$E$28</t>
+  </si>
+  <si>
+    <t>SAN Decision Variable</t>
+  </si>
+  <si>
+    <t>$E$28&gt;=$G$28</t>
+  </si>
+  <si>
+    <t>Not Binding</t>
+  </si>
+  <si>
+    <t>$E$29</t>
+  </si>
+  <si>
+    <t>SEA Decision Variable</t>
+  </si>
+  <si>
+    <t>$E$29&gt;=$G$29</t>
+  </si>
+  <si>
+    <t>$E$30</t>
+  </si>
+  <si>
+    <t>$E$30&gt;=$G$30</t>
+  </si>
+  <si>
+    <t>$E$31</t>
+  </si>
+  <si>
+    <t>DCA Decision Variable</t>
+  </si>
+  <si>
+    <t>$E$31&gt;=$G$31</t>
+  </si>
+  <si>
+    <t>$E$32</t>
+  </si>
+  <si>
+    <t>$E$32&gt;=$G$32</t>
+  </si>
+  <si>
+    <t>$E$33</t>
+  </si>
+  <si>
+    <t>$E$33&gt;=$G$33</t>
+  </si>
+  <si>
+    <t>$E$35</t>
+  </si>
+  <si>
+    <t>$E$35&gt;=$G$35</t>
+  </si>
+  <si>
+    <t>$E$36</t>
+  </si>
+  <si>
+    <t>$E$36&gt;=$G$36</t>
+  </si>
+  <si>
+    <t>$E$37</t>
+  </si>
+  <si>
+    <t>$E$37&gt;=$G$37</t>
+  </si>
+  <si>
+    <t>$E$38</t>
+  </si>
+  <si>
+    <t>$E$38&gt;=$G$38</t>
+  </si>
+  <si>
+    <t>$E$39</t>
+  </si>
+  <si>
+    <t>$E$39&gt;=$G$39</t>
+  </si>
+  <si>
+    <t>$E$40</t>
+  </si>
+  <si>
+    <t>$E$40&gt;=$G$40</t>
+  </si>
+  <si>
+    <t>$E$41</t>
+  </si>
+  <si>
+    <t>$E$41&gt;=$G$41</t>
+  </si>
+  <si>
+    <t>$E$43</t>
+  </si>
+  <si>
+    <t>$E$43&gt;=$G$43</t>
+  </si>
+  <si>
+    <t>$E$44</t>
+  </si>
+  <si>
+    <t>$E$44&gt;=$G$44</t>
+  </si>
+  <si>
+    <t>$E$45</t>
+  </si>
+  <si>
+    <t>$E$45&gt;=$G$45</t>
+  </si>
+  <si>
+    <t>$E$46</t>
+  </si>
+  <si>
+    <t>$E$46&gt;=$G$46</t>
+  </si>
+  <si>
+    <t>$E$47</t>
+  </si>
+  <si>
+    <t>$E$47&gt;=$G$47</t>
+  </si>
+  <si>
+    <t>$E$48</t>
+  </si>
+  <si>
+    <t>$E$48&gt;=$G$48</t>
+  </si>
+  <si>
+    <t>$E$50</t>
+  </si>
+  <si>
+    <t>$E$50&gt;=$G$50</t>
+  </si>
+  <si>
+    <t>$E$51</t>
+  </si>
+  <si>
+    <t>$E$51&gt;=$G$51</t>
+  </si>
+  <si>
+    <t>$E$52</t>
+  </si>
+  <si>
+    <t>$E$52&gt;=$G$52</t>
+  </si>
+  <si>
+    <t>$E$53</t>
+  </si>
+  <si>
+    <t>HNL Decision Variable</t>
+  </si>
+  <si>
+    <t>$E$53&gt;=$G$53</t>
+  </si>
+  <si>
+    <t>$E$54</t>
+  </si>
+  <si>
+    <t>$E$54&gt;=$G$54</t>
+  </si>
+  <si>
+    <t>$E$55</t>
+  </si>
+  <si>
+    <t>$E$55&gt;=$G$55</t>
+  </si>
+  <si>
+    <t>$E$56</t>
+  </si>
+  <si>
+    <t>$E$56&gt;=$G$56</t>
+  </si>
+  <si>
+    <t>$E$57</t>
+  </si>
+  <si>
+    <t>$E$57&gt;=$G$57</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.91 Answer Report</t>
+  </si>
+  <si>
+    <t>Result: Solver found a solution.  All constraints and optimality conditions are satisfied.</t>
+  </si>
+  <si>
+    <t>Solver Engine</t>
+  </si>
+  <si>
+    <t>Engine: Simplex LP</t>
+  </si>
+  <si>
+    <t>Iterations: 43 Subproblems: 0</t>
+  </si>
+  <si>
+    <t>Solver Options</t>
+  </si>
+  <si>
+    <t>Max Time Unlimited, Iterations Unlimited, Precision 0.000001</t>
+  </si>
+  <si>
+    <t>Max Subproblems Unlimited, Max Integer Sols Unlimited, Integer Tolerance 1%, Solve Without Integer Constraints, Assume NonNegative</t>
+  </si>
+  <si>
+    <t>Objective Cell (Min)</t>
+  </si>
+  <si>
+    <t>Original Value</t>
+  </si>
+  <si>
+    <t>Final Value</t>
+  </si>
+  <si>
+    <t>Variable Cells</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>$F$58</t>
+  </si>
+  <si>
+    <t>Grand Total Delay (obj is to minimize) Total Delay from Route</t>
+  </si>
+  <si>
+    <t>$C$11</t>
+  </si>
+  <si>
+    <t>LAX Predicted Demand</t>
+  </si>
+  <si>
+    <t>$C$11&gt;=$E$11</t>
+  </si>
+  <si>
+    <t>$C$12</t>
+  </si>
+  <si>
+    <t>OKC Predicted Demand</t>
+  </si>
+  <si>
+    <t>$C$12&gt;=$E$12</t>
+  </si>
+  <si>
+    <t>$C$13</t>
+  </si>
+  <si>
+    <t>SAN Predicted Demand</t>
+  </si>
+  <si>
+    <t>$C$13&gt;=$E$13</t>
+  </si>
+  <si>
+    <t>$C$14</t>
+  </si>
+  <si>
+    <t>SEA Predicted Demand</t>
+  </si>
+  <si>
+    <t>$C$14&gt;=$E$14</t>
+  </si>
+  <si>
+    <t>$C$15</t>
+  </si>
+  <si>
+    <t>LGA Predicted Demand</t>
+  </si>
+  <si>
+    <t>$C$15&gt;=$E$15</t>
+  </si>
+  <si>
+    <t>$C$16</t>
+  </si>
+  <si>
+    <t>CHS Predicted Demand</t>
+  </si>
+  <si>
+    <t>$C$16&gt;=$E$16</t>
+  </si>
+  <si>
+    <t>$C$17</t>
+  </si>
+  <si>
+    <t>DCA Predicted Demand</t>
+  </si>
+  <si>
+    <t>$C$17&gt;=$E$17</t>
+  </si>
+  <si>
+    <t>$C$18</t>
+  </si>
+  <si>
+    <t>HNL Predicted Demand</t>
+  </si>
+  <si>
+    <t>$C$18&gt;=$E$18</t>
+  </si>
+  <si>
+    <t>$C$3</t>
+  </si>
+  <si>
+    <t>BWI Predicted Supply</t>
+  </si>
+  <si>
+    <t>$C$3&gt;=$E$3</t>
+  </si>
+  <si>
+    <t>$C$4</t>
+  </si>
+  <si>
+    <t>MDW Predicted Supply</t>
+  </si>
+  <si>
+    <t>$C$4&gt;=$E$4</t>
+  </si>
+  <si>
+    <t>$C$5</t>
+  </si>
+  <si>
+    <t>DAL Predicted Supply</t>
+  </si>
+  <si>
+    <t>$C$5&gt;=$E$5</t>
+  </si>
+  <si>
+    <t>$C$6</t>
+  </si>
+  <si>
+    <t>DEN Predicted Supply</t>
+  </si>
+  <si>
+    <t>$C$6&gt;=$E$6</t>
+  </si>
+  <si>
+    <t>$C$7</t>
+  </si>
+  <si>
+    <t>LAS Predicted Supply</t>
+  </si>
+  <si>
+    <t>$C$7&gt;=$E$7</t>
+  </si>
+  <si>
+    <t>$C$8</t>
+  </si>
+  <si>
+    <t>$C$8=$E$8</t>
+  </si>
+  <si>
+    <t>$E$23:$E$57=Integer</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.91 Sensitivity Report</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Reduced</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Allowable</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>R.H. Side</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.91 Limits Report</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>Report Created: 12/5/24 14:35:58</t>
+  </si>
+  <si>
+    <t>Solution Time: 485.634 Seconds.</t>
+  </si>
+  <si>
+    <t>Report Created: 12/5/24 14:35:59</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>BWI to CHS Decision Variable</t>
+  </si>
+  <si>
+    <t>BWI to LAX Decision Variable</t>
+  </si>
+  <si>
+    <t>BWI to LGA Decision Variable</t>
+  </si>
+  <si>
+    <t>BWI to MIA Decision Variable</t>
+  </si>
+  <si>
+    <t>BWI to OKC Decision Variable</t>
+  </si>
+  <si>
+    <t>BWI to SAN Decision Variable</t>
+  </si>
+  <si>
+    <t>BWI to SEA Decision Variable</t>
+  </si>
+  <si>
+    <t>MDW to CHS Decision Variable</t>
+  </si>
+  <si>
+    <t>MDW to DCA Decision Variable</t>
+  </si>
+  <si>
+    <t>MDW to LAX Decision Variable</t>
+  </si>
+  <si>
+    <t>MDW to LGA Decision Variable</t>
+  </si>
+  <si>
+    <t>MDW to MIA Decision Variable</t>
+  </si>
+  <si>
+    <t>MDW to OKC Decision Variable</t>
+  </si>
+  <si>
+    <t>MDW to SAN Decision Variable</t>
+  </si>
+  <si>
+    <t>MDW to SEA Decision Variable</t>
+  </si>
+  <si>
+    <t>DAL to CHS Decision Variable</t>
+  </si>
+  <si>
+    <t>DAL to DCA Decision Variable</t>
+  </si>
+  <si>
+    <t>DAL to LAX Decision Variable</t>
+  </si>
+  <si>
+    <t>DAL to LGA Decision Variable</t>
+  </si>
+  <si>
+    <t>DAL to MIA Decision Variable</t>
+  </si>
+  <si>
+    <t>DAL to OKC Decision Variable</t>
+  </si>
+  <si>
+    <t>DAL to SAN Decision Variable</t>
+  </si>
+  <si>
+    <t>DAL to SEA Decision Variable</t>
+  </si>
+  <si>
+    <t>DEN to CHS Decision Variable</t>
+  </si>
+  <si>
+    <t>DEN to LAX Decision Variable</t>
+  </si>
+  <si>
+    <t>DEN to LGA Decision Variable</t>
+  </si>
+  <si>
+    <t>DEN to MIA Decision Variable</t>
+  </si>
+  <si>
+    <t>DEN to OKC Decision Variable</t>
+  </si>
+  <si>
+    <t>DEN to SAN Decision Variable</t>
+  </si>
+  <si>
+    <t>DEN to SEA Decision Variable</t>
+  </si>
+  <si>
+    <t>LAS to HNL Decision Variable</t>
+  </si>
+  <si>
+    <t>LAS to LAX Decision Variable</t>
+  </si>
+  <si>
+    <t>LAS to OKC Decision Variable</t>
+  </si>
+  <si>
+    <t>LAS to SAN Decision Variable</t>
+  </si>
+  <si>
+    <t>LAS to SEA Decision Variable</t>
+  </si>
+  <si>
+    <t>Total Predicted Supply</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -187,6 +817,21 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Display"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="18"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -227,7 +872,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -253,11 +898,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -287,23 +992,37 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,11 +1376,4322 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424F1CBF-09F4-C54B-AB31-70F78C6F3FD1}">
+  <dimension ref="A1:I110"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A62" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="22"/>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="22"/>
+      <c r="B7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="22"/>
+      <c r="B8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="27">
+        <v>64018.419999999991</v>
+      </c>
+      <c r="E16" s="27">
+        <v>64018.419999999991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="28">
+        <v>19</v>
+      </c>
+      <c r="E21" s="28">
+        <v>19</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="28">
+        <v>19</v>
+      </c>
+      <c r="E22" s="28">
+        <v>19</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="28">
+        <v>19</v>
+      </c>
+      <c r="E23" s="28">
+        <v>19</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="28">
+        <v>19</v>
+      </c>
+      <c r="E24" s="28">
+        <v>19</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="28">
+        <v>19</v>
+      </c>
+      <c r="E25" s="28">
+        <v>19</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="28">
+        <v>261</v>
+      </c>
+      <c r="E26" s="28">
+        <v>261</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="28">
+        <v>19</v>
+      </c>
+      <c r="E27" s="28">
+        <v>19</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="28">
+        <v>40</v>
+      </c>
+      <c r="E28" s="28">
+        <v>40</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="28">
+        <v>173</v>
+      </c>
+      <c r="E29" s="28">
+        <v>173</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="28">
+        <v>40</v>
+      </c>
+      <c r="E30" s="28">
+        <v>40</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="28">
+        <v>312</v>
+      </c>
+      <c r="E31" s="28">
+        <v>312</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="28">
+        <v>115</v>
+      </c>
+      <c r="E32" s="28">
+        <v>115</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="28">
+        <v>40</v>
+      </c>
+      <c r="E33" s="28">
+        <v>40</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="28">
+        <v>40</v>
+      </c>
+      <c r="E34" s="28">
+        <v>40</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="28">
+        <v>40</v>
+      </c>
+      <c r="E35" s="28">
+        <v>40</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="28">
+        <v>29</v>
+      </c>
+      <c r="E36" s="28">
+        <v>29</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="28">
+        <v>136</v>
+      </c>
+      <c r="E37" s="28">
+        <v>136</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="28">
+        <v>96</v>
+      </c>
+      <c r="E38" s="28">
+        <v>96</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="28">
+        <v>29</v>
+      </c>
+      <c r="E39" s="28">
+        <v>29</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="28">
+        <v>29</v>
+      </c>
+      <c r="E40" s="28">
+        <v>29</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="28">
+        <v>29</v>
+      </c>
+      <c r="E41" s="28">
+        <v>29</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="28">
+        <v>29</v>
+      </c>
+      <c r="E42" s="28">
+        <v>29</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="28">
+        <v>207</v>
+      </c>
+      <c r="E43" s="28">
+        <v>207</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="28">
+        <v>119</v>
+      </c>
+      <c r="E44" s="28">
+        <v>119</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="28">
+        <v>505</v>
+      </c>
+      <c r="E45" s="28">
+        <v>505</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="28">
+        <v>42</v>
+      </c>
+      <c r="E46" s="28">
+        <v>42</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="28">
+        <v>42</v>
+      </c>
+      <c r="E47" s="28">
+        <v>42</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="28">
+        <v>42</v>
+      </c>
+      <c r="E48" s="28">
+        <v>42</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B49" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="28">
+        <v>42</v>
+      </c>
+      <c r="E49" s="28">
+        <v>42</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B50" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="28">
+        <v>42</v>
+      </c>
+      <c r="E50" s="28">
+        <v>42</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B51" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="28">
+        <v>60</v>
+      </c>
+      <c r="E51" s="28">
+        <v>60</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B52" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="28">
+        <v>71</v>
+      </c>
+      <c r="E52" s="28">
+        <v>71</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B53" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="28">
+        <v>118</v>
+      </c>
+      <c r="E53" s="28">
+        <v>118</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B54" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="28">
+        <v>483</v>
+      </c>
+      <c r="E54" s="28">
+        <v>483</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="27">
+        <v>39</v>
+      </c>
+      <c r="E55" s="27">
+        <v>39</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B60" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="28">
+        <v>750</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G60" s="28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B61" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="28">
+        <v>248</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B62" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D62" s="28">
+        <v>855</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G62" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B63" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" s="28">
+        <v>347</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="F63" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G63" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B64" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" s="28">
+        <v>402</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F64" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G64" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B65" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" s="28">
+        <v>207</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G65" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B66" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D66" s="28">
+        <v>309</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G66" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B67" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" s="28">
+        <v>60</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="F67" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G67" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B68" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" s="28">
+        <v>205</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F68" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G68" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B69" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" s="28">
+        <v>375</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="F69" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G69" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B70" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D70" s="28">
+        <v>800</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G70" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B71" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D71" s="28">
+        <v>584</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F71" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G71" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B72" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" s="28">
+        <v>834</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="F72" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G72" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B73" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D73" s="28">
+        <v>771</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="F73" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G73" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B74" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D74" s="28">
+        <v>3364</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="F74" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G74" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B75" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D75" s="28">
+        <v>19</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F75" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G75" s="28">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <f>COUNTIF(F75:F109,"Binding")</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D76" s="28">
+        <v>19</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F76" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G76" s="28">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <f>COUNTIF(F76:F110,"Not Binding")</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D77" s="28">
+        <v>19</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F77" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G77" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D78" s="28">
+        <v>19</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F78" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G78" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D79" s="28">
+        <v>19</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F79" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G79" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B80" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D80" s="28">
+        <v>261</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F80" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G80" s="28">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B81" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="D81" s="28">
+        <v>19</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F81" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G81" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B82" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="D82" s="28">
+        <v>40</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F82" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G82" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B83" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D83" s="28">
+        <v>173</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F83" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G83" s="28">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B84" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="D84" s="28">
+        <v>40</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F84" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G84" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B85" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D85" s="28">
+        <v>312</v>
+      </c>
+      <c r="E85" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F85" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G85" s="28">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B86" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D86" s="28">
+        <v>115</v>
+      </c>
+      <c r="E86" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G86" s="28">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B87" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="D87" s="28">
+        <v>40</v>
+      </c>
+      <c r="E87" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F87" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G87" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B88" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C88" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D88" s="28">
+        <v>40</v>
+      </c>
+      <c r="E88" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F88" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G88" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B89" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C89" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="D89" s="28">
+        <v>40</v>
+      </c>
+      <c r="E89" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F89" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G89" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B90" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="D90" s="28">
+        <v>29</v>
+      </c>
+      <c r="E90" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F90" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G90" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B91" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C91" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D91" s="28">
+        <v>136</v>
+      </c>
+      <c r="E91" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F91" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G91" s="28">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B92" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="D92" s="28">
+        <v>96</v>
+      </c>
+      <c r="E92" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F92" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G92" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B93" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D93" s="28">
+        <v>29</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F93" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G93" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B94" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="D94" s="28">
+        <v>29</v>
+      </c>
+      <c r="E94" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F94" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G94" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B95" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="D95" s="28">
+        <v>29</v>
+      </c>
+      <c r="E95" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F95" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G95" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B96" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="D96" s="28">
+        <v>29</v>
+      </c>
+      <c r="E96" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F96" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G96" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B97" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C97" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="D97" s="28">
+        <v>207</v>
+      </c>
+      <c r="E97" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F97" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G97" s="28">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B98" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="D98" s="28">
+        <v>119</v>
+      </c>
+      <c r="E98" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F98" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G98" s="28">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B99" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C99" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D99" s="28">
+        <v>505</v>
+      </c>
+      <c r="E99" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F99" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G99" s="28">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B100" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="D100" s="28">
+        <v>42</v>
+      </c>
+      <c r="E100" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F100" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G100" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B101" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D101" s="28">
+        <v>42</v>
+      </c>
+      <c r="E101" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F101" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G101" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B102" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D102" s="28">
+        <v>42</v>
+      </c>
+      <c r="E102" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F102" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G102" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B103" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="D103" s="28">
+        <v>42</v>
+      </c>
+      <c r="E103" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="F103" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G103" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B104" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="D104" s="28">
+        <v>42</v>
+      </c>
+      <c r="E104" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F104" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G104" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B105" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C105" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="D105" s="28">
+        <v>60</v>
+      </c>
+      <c r="E105" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="F105" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G105" s="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B106" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D106" s="28">
+        <v>71</v>
+      </c>
+      <c r="E106" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F106" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G106" s="28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B107" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C107" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D107" s="28">
+        <v>118</v>
+      </c>
+      <c r="E107" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F107" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G107" s="28">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B108" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D108" s="28">
+        <v>483</v>
+      </c>
+      <c r="E108" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F108" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G108" s="28">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B109" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C109" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="D109" s="28">
+        <v>39</v>
+      </c>
+      <c r="E109" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F109" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G109" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6D8B55-172B-484E-BE21-DA296BD4D8FA}">
+  <dimension ref="A1:N62"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A38" zoomScale="129" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="26">
+        <v>19</v>
+      </c>
+      <c r="E9" s="26">
+        <v>5.0199999999999783</v>
+      </c>
+      <c r="F9" s="26">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G9" s="26">
+        <v>1E+30</v>
+      </c>
+      <c r="H9" s="26">
+        <v>5.0199999999999783</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="J9" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,J9:M9)</f>
+        <v>BWI to CHS Decision Variable</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B10" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="26">
+        <v>19</v>
+      </c>
+      <c r="E10" s="26">
+        <v>13.439999999999998</v>
+      </c>
+      <c r="F10" s="26">
+        <v>32.58</v>
+      </c>
+      <c r="G10" s="26">
+        <v>1E+30</v>
+      </c>
+      <c r="H10" s="26">
+        <v>13.439999999999998</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" ref="N10:N43" si="0">_xlfn.TEXTJOIN(" ",TRUE,J10:M10)</f>
+        <v>BWI to LAX Decision Variable</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B11" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="26">
+        <v>19</v>
+      </c>
+      <c r="E11" s="26">
+        <v>14.250000000000028</v>
+      </c>
+      <c r="F11" s="26">
+        <v>26.64</v>
+      </c>
+      <c r="G11" s="26">
+        <v>1E+30</v>
+      </c>
+      <c r="H11" s="26">
+        <v>14.250000000000028</v>
+      </c>
+      <c r="I11" s="31"/>
+      <c r="J11" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="0"/>
+        <v>BWI to LGA Decision Variable</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B12" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="26">
+        <v>19</v>
+      </c>
+      <c r="E12" s="26">
+        <v>8.6800000000000352</v>
+      </c>
+      <c r="F12" s="26">
+        <v>25.149999999999991</v>
+      </c>
+      <c r="G12" s="26">
+        <v>1E+30</v>
+      </c>
+      <c r="H12" s="26">
+        <v>8.6800000000000352</v>
+      </c>
+      <c r="I12" s="31"/>
+      <c r="J12" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="0"/>
+        <v>BWI to MIA Decision Variable</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B13" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="26">
+        <v>19</v>
+      </c>
+      <c r="E13" s="26">
+        <v>5.8400000000000603</v>
+      </c>
+      <c r="F13" s="26">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="G13" s="26">
+        <v>1E+30</v>
+      </c>
+      <c r="H13" s="26">
+        <v>5.8400000000000603</v>
+      </c>
+      <c r="I13" s="31"/>
+      <c r="J13" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="0"/>
+        <v>BWI to OKC Decision Variable</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B14" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="26">
+        <v>261</v>
+      </c>
+      <c r="E14" s="26">
+        <v>0</v>
+      </c>
+      <c r="F14" s="26">
+        <v>12.899999999999991</v>
+      </c>
+      <c r="G14" s="26">
+        <v>3.8300000000000267</v>
+      </c>
+      <c r="H14" s="26">
+        <v>1E+30</v>
+      </c>
+      <c r="I14" s="31"/>
+      <c r="J14" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="0"/>
+        <v>BWI to SAN Decision Variable</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="34">
+        <v>19</v>
+      </c>
+      <c r="E15" s="34">
+        <v>3.8300000000000267</v>
+      </c>
+      <c r="F15" s="34">
+        <v>19.75</v>
+      </c>
+      <c r="G15" s="34">
+        <v>1E+30</v>
+      </c>
+      <c r="H15" s="34">
+        <v>3.8300000000000267</v>
+      </c>
+      <c r="I15" s="35"/>
+      <c r="J15" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="0"/>
+        <v>BWI to SEA Decision Variable</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="25">
+        <v>40</v>
+      </c>
+      <c r="E16" s="25">
+        <v>3.7799999999999407</v>
+      </c>
+      <c r="F16" s="25">
+        <v>17.710000000000008</v>
+      </c>
+      <c r="G16" s="25">
+        <v>1E+30</v>
+      </c>
+      <c r="H16" s="25">
+        <v>3.7799999999999407</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="0"/>
+        <v>MDW to CHS Decision Variable</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B17" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="26">
+        <v>173</v>
+      </c>
+      <c r="E17" s="26">
+        <v>0</v>
+      </c>
+      <c r="F17" s="26">
+        <v>16.689999999999998</v>
+      </c>
+      <c r="G17" s="26">
+        <v>0.9699999999999136</v>
+      </c>
+      <c r="H17" s="26">
+        <v>2.6700000000000443</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="0"/>
+        <v>MDW to DCA Decision Variable</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B18" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" s="26">
+        <v>40</v>
+      </c>
+      <c r="E18" s="26">
+        <v>1.4799999999999613</v>
+      </c>
+      <c r="F18" s="26">
+        <v>23.560000000000002</v>
+      </c>
+      <c r="G18" s="26">
+        <v>1E+30</v>
+      </c>
+      <c r="H18" s="26">
+        <v>1.4799999999999613</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="0"/>
+        <v>MDW to LAX Decision Variable</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B19" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19" s="26">
+        <v>312</v>
+      </c>
+      <c r="E19" s="26">
+        <v>0</v>
+      </c>
+      <c r="F19" s="26">
+        <v>15.330000000000013</v>
+      </c>
+      <c r="G19" s="26">
+        <v>4.4500000000000171</v>
+      </c>
+      <c r="H19" s="26">
+        <v>1E+30</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="0"/>
+        <v>MDW to LGA Decision Variable</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B20" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D20" s="26">
+        <v>115</v>
+      </c>
+      <c r="E20" s="26">
+        <v>0</v>
+      </c>
+      <c r="F20" s="26">
+        <v>19.409999999999997</v>
+      </c>
+      <c r="G20" s="26">
+        <v>2.6700000000000443</v>
+      </c>
+      <c r="H20" s="26">
+        <v>1E+30</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="0"/>
+        <v>MDW to MIA Decision Variable</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="D21" s="26">
+        <v>40</v>
+      </c>
+      <c r="E21" s="26">
+        <v>9.9200000000000443</v>
+      </c>
+      <c r="F21" s="26">
+        <v>27.190000000000026</v>
+      </c>
+      <c r="G21" s="26">
+        <v>1E+30</v>
+      </c>
+      <c r="H21" s="26">
+        <v>9.9200000000000443</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="0"/>
+        <v>MDW to OKC Decision Variable</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D22" s="26">
+        <v>40</v>
+      </c>
+      <c r="E22" s="26">
+        <v>5.839999999999975</v>
+      </c>
+      <c r="F22" s="26">
+        <v>21.680000000000007</v>
+      </c>
+      <c r="G22" s="26">
+        <v>1E+30</v>
+      </c>
+      <c r="H22" s="26">
+        <v>5.839999999999975</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="0"/>
+        <v>MDW to SAN Decision Variable</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="D23" s="34">
+        <v>40</v>
+      </c>
+      <c r="E23" s="34">
+        <v>3.8799999999999955</v>
+      </c>
+      <c r="F23" s="34">
+        <v>22.740000000000009</v>
+      </c>
+      <c r="G23" s="34">
+        <v>1E+30</v>
+      </c>
+      <c r="H23" s="34">
+        <v>3.8799999999999955</v>
+      </c>
+      <c r="I23" s="35"/>
+      <c r="J23" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="0"/>
+        <v>MDW to SEA Decision Variable</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" s="25">
+        <v>29</v>
+      </c>
+      <c r="E24" s="25">
+        <v>1.0899999999999714</v>
+      </c>
+      <c r="F24" s="25">
+        <v>15.920000000000016</v>
+      </c>
+      <c r="G24" s="25">
+        <v>1E+30</v>
+      </c>
+      <c r="H24" s="25">
+        <v>1.0899999999999714</v>
+      </c>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L24" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="0"/>
+        <v>DAL to CHS Decision Variable</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" s="26">
+        <v>136</v>
+      </c>
+      <c r="E25" s="26">
+        <v>0</v>
+      </c>
+      <c r="F25" s="26">
+        <v>17.589999999999975</v>
+      </c>
+      <c r="G25" s="26">
+        <v>2.6700000000000443</v>
+      </c>
+      <c r="H25" s="26">
+        <v>0.9699999999999136</v>
+      </c>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L25" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="0"/>
+        <v>DAL to DCA Decision Variable</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B26" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="D26" s="26">
+        <v>96</v>
+      </c>
+      <c r="E26" s="26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="26">
+        <v>22.980000000000018</v>
+      </c>
+      <c r="G26" s="26">
+        <v>6.9999999999936335E-2</v>
+      </c>
+      <c r="H26" s="26">
+        <v>1.5599999999999454</v>
+      </c>
+      <c r="I26" s="31"/>
+      <c r="J26" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L26" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="0"/>
+        <v>DAL to LAX Decision Variable</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D27" s="26">
+        <v>29</v>
+      </c>
+      <c r="E27" s="26">
+        <v>4.4500000000000171</v>
+      </c>
+      <c r="F27" s="26">
+        <v>20.680000000000007</v>
+      </c>
+      <c r="G27" s="26">
+        <v>1E+30</v>
+      </c>
+      <c r="H27" s="26">
+        <v>4.4500000000000171</v>
+      </c>
+      <c r="I27" s="31"/>
+      <c r="J27" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L27" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="0"/>
+        <v>DAL to LGA Decision Variable</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B28" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="D28" s="26">
+        <v>29</v>
+      </c>
+      <c r="E28" s="26">
+        <v>6.7300000000000466</v>
+      </c>
+      <c r="F28" s="26">
+        <v>27.04000000000002</v>
+      </c>
+      <c r="G28" s="26">
+        <v>1E+30</v>
+      </c>
+      <c r="H28" s="26">
+        <v>6.7300000000000466</v>
+      </c>
+      <c r="I28" s="31"/>
+      <c r="J28" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L28" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="0"/>
+        <v>DAL to MIA Decision Variable</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B29" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="D29" s="26">
+        <v>29</v>
+      </c>
+      <c r="E29" s="26">
+        <v>6.5800000000000409</v>
+      </c>
+      <c r="F29" s="26">
+        <v>24.75</v>
+      </c>
+      <c r="G29" s="26">
+        <v>1E+30</v>
+      </c>
+      <c r="H29" s="26">
+        <v>6.5800000000000409</v>
+      </c>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L29" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="0"/>
+        <v>DAL to OKC Decision Variable</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B30" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="D30" s="26">
+        <v>29</v>
+      </c>
+      <c r="E30" s="26">
+        <v>2.0999999999999659</v>
+      </c>
+      <c r="F30" s="26">
+        <v>18.839999999999975</v>
+      </c>
+      <c r="G30" s="26">
+        <v>1E+30</v>
+      </c>
+      <c r="H30" s="26">
+        <v>2.0999999999999659</v>
+      </c>
+      <c r="I30" s="31"/>
+      <c r="J30" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L30" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="0"/>
+        <v>DAL to SAN Decision Variable</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B31" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="D31" s="34">
+        <v>207</v>
+      </c>
+      <c r="E31" s="34">
+        <v>0</v>
+      </c>
+      <c r="F31" s="34">
+        <v>19.759999999999991</v>
+      </c>
+      <c r="G31" s="34">
+        <v>1.5599999999999454</v>
+      </c>
+      <c r="H31" s="34">
+        <v>1E+30</v>
+      </c>
+      <c r="I31" s="35"/>
+      <c r="J31" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L31" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="0"/>
+        <v>DAL to SEA Decision Variable</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B32" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="D32" s="25">
+        <v>119</v>
+      </c>
+      <c r="E32" s="25">
+        <v>0</v>
+      </c>
+      <c r="F32" s="25">
+        <v>14.899999999999977</v>
+      </c>
+      <c r="G32" s="25">
+        <v>1.0899999999999714</v>
+      </c>
+      <c r="H32" s="25">
+        <v>1E+30</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="0"/>
+        <v>DEN to CHS Decision Variable</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B33" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D33" s="26">
+        <v>505</v>
+      </c>
+      <c r="E33" s="26">
+        <v>0</v>
+      </c>
+      <c r="F33" s="26">
+        <v>23.049999999999955</v>
+      </c>
+      <c r="G33" s="26">
+        <v>2.6500000000000909</v>
+      </c>
+      <c r="H33" s="26">
+        <v>6.9999999999936335E-2</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="0"/>
+        <v>DEN to LAX Decision Variable</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B34" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34" s="26">
+        <v>42</v>
+      </c>
+      <c r="E34" s="26">
+        <v>16.050000000000097</v>
+      </c>
+      <c r="F34" s="26">
+        <v>32.350000000000023</v>
+      </c>
+      <c r="G34" s="26">
+        <v>1E+30</v>
+      </c>
+      <c r="H34" s="26">
+        <v>16.050000000000097</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M34" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="0"/>
+        <v>DEN to LGA Decision Variable</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B35" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35" s="26">
+        <v>42</v>
+      </c>
+      <c r="E35" s="26">
+        <v>4.7500000000000853</v>
+      </c>
+      <c r="F35" s="26">
+        <v>25.129999999999995</v>
+      </c>
+      <c r="G35" s="26">
+        <v>1E+30</v>
+      </c>
+      <c r="H35" s="26">
+        <v>4.7500000000000853</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M35" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="0"/>
+        <v>DEN to MIA Decision Variable</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B36" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D36" s="26">
+        <v>42</v>
+      </c>
+      <c r="E36" s="26">
+        <v>6.0100000000001046</v>
+      </c>
+      <c r="F36" s="26">
+        <v>24.25</v>
+      </c>
+      <c r="G36" s="26">
+        <v>1E+30</v>
+      </c>
+      <c r="H36" s="26">
+        <v>6.0100000000001046</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K36" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M36" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="0"/>
+        <v>DEN to OKC Decision Variable</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B37" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="D37" s="26">
+        <v>42</v>
+      </c>
+      <c r="E37" s="26">
+        <v>4.9400000000000546</v>
+      </c>
+      <c r="F37" s="26">
+        <v>21.75</v>
+      </c>
+      <c r="G37" s="26">
+        <v>1E+30</v>
+      </c>
+      <c r="H37" s="26">
+        <v>4.9400000000000546</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M37" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="0"/>
+        <v>DEN to SAN Decision Variable</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B38" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="D38" s="34">
+        <v>42</v>
+      </c>
+      <c r="E38" s="34">
+        <v>2.6500000000000909</v>
+      </c>
+      <c r="F38" s="34">
+        <v>22.480000000000018</v>
+      </c>
+      <c r="G38" s="34">
+        <v>1E+30</v>
+      </c>
+      <c r="H38" s="34">
+        <v>2.6500000000000909</v>
+      </c>
+      <c r="I38" s="35"/>
+      <c r="J38" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K38" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L38" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M38" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="0"/>
+        <v>DEN to SEA Decision Variable</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B39" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="D39" s="25">
+        <v>60</v>
+      </c>
+      <c r="E39" s="25">
+        <v>0</v>
+      </c>
+      <c r="F39" s="25">
+        <v>15.470000000000027</v>
+      </c>
+      <c r="G39" s="25">
+        <v>6.7300000000000182</v>
+      </c>
+      <c r="H39" s="25">
+        <v>1E+30</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K39" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M39" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="0"/>
+        <v>LAS to HNL Decision Variable</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B40" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D40" s="26">
+        <v>71</v>
+      </c>
+      <c r="E40" s="26">
+        <v>0</v>
+      </c>
+      <c r="F40" s="26">
+        <v>22.200000000000045</v>
+      </c>
+      <c r="G40" s="26">
+        <v>0.84999999999990905</v>
+      </c>
+      <c r="H40" s="26">
+        <v>2.0999999999999659</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K40" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M40" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="0"/>
+        <v>LAS to LAX Decision Variable</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B41" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D41" s="26">
+        <v>118</v>
+      </c>
+      <c r="E41" s="26">
+        <v>0</v>
+      </c>
+      <c r="F41" s="26">
+        <v>17.389999999999986</v>
+      </c>
+      <c r="G41" s="26">
+        <v>4.8100000000000591</v>
+      </c>
+      <c r="H41" s="26">
+        <v>1E+30</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M41" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="0"/>
+        <v>LAS to OKC Decision Variable</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B42" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D42" s="26">
+        <v>483</v>
+      </c>
+      <c r="E42" s="26">
+        <v>0</v>
+      </c>
+      <c r="F42" s="26">
+        <v>15.960000000000036</v>
+      </c>
+      <c r="G42" s="26">
+        <v>2.0999999999999659</v>
+      </c>
+      <c r="H42" s="26">
+        <v>3.8300000000000267</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="0"/>
+        <v>LAS to SAN Decision Variable</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B43" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="D43" s="34">
+        <v>39</v>
+      </c>
+      <c r="E43" s="34">
+        <v>1.5599999999999454</v>
+      </c>
+      <c r="F43" s="34">
+        <v>20.539999999999964</v>
+      </c>
+      <c r="G43" s="34">
+        <v>1E+30</v>
+      </c>
+      <c r="H43" s="34">
+        <v>1.5599999999999454</v>
+      </c>
+      <c r="I43" s="35"/>
+      <c r="J43" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L43" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M43" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="0"/>
+        <v>LAS to SEA Decision Variable</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="G47" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="H47" s="30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B48" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="26">
+        <v>750</v>
+      </c>
+      <c r="E48" s="26">
+        <v>0</v>
+      </c>
+      <c r="F48" s="26">
+        <v>0</v>
+      </c>
+      <c r="G48" s="26">
+        <v>19</v>
+      </c>
+      <c r="H48" s="26">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="26">
+        <v>248</v>
+      </c>
+      <c r="E49" s="26">
+        <v>4.8100000000000591</v>
+      </c>
+      <c r="F49" s="26">
+        <v>0</v>
+      </c>
+      <c r="G49" s="26">
+        <v>19</v>
+      </c>
+      <c r="H49" s="26">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" s="26">
+        <v>855</v>
+      </c>
+      <c r="E50" s="26">
+        <v>6.2400000000000091</v>
+      </c>
+      <c r="F50" s="26">
+        <v>0</v>
+      </c>
+      <c r="G50" s="26">
+        <v>19</v>
+      </c>
+      <c r="H50" s="26">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="26">
+        <v>347</v>
+      </c>
+      <c r="E51" s="26">
+        <v>3.2200000000000273</v>
+      </c>
+      <c r="F51" s="26">
+        <v>0</v>
+      </c>
+      <c r="G51" s="26">
+        <v>19</v>
+      </c>
+      <c r="H51" s="26">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="26">
+        <v>402</v>
+      </c>
+      <c r="E52" s="26">
+        <v>6.7500000000000284</v>
+      </c>
+      <c r="F52" s="26">
+        <v>0</v>
+      </c>
+      <c r="G52" s="26">
+        <v>19</v>
+      </c>
+      <c r="H52" s="26">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" s="26">
+        <v>207</v>
+      </c>
+      <c r="E53" s="26">
+        <v>8.1499999999999773</v>
+      </c>
+      <c r="F53" s="26">
+        <v>0</v>
+      </c>
+      <c r="G53" s="26">
+        <v>19</v>
+      </c>
+      <c r="H53" s="26">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" s="26">
+        <v>309</v>
+      </c>
+      <c r="E54" s="26">
+        <v>5.3900000000000432</v>
+      </c>
+      <c r="F54" s="26">
+        <v>0</v>
+      </c>
+      <c r="G54" s="26">
+        <v>19</v>
+      </c>
+      <c r="H54" s="26">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="26">
+        <v>60</v>
+      </c>
+      <c r="E55" s="26">
+        <v>6.7300000000000182</v>
+      </c>
+      <c r="F55" s="26">
+        <v>0</v>
+      </c>
+      <c r="G55" s="26">
+        <v>19</v>
+      </c>
+      <c r="H55" s="26">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="26">
+        <v>205</v>
+      </c>
+      <c r="E56" s="26">
+        <v>2.6700000000000443</v>
+      </c>
+      <c r="F56" s="26">
+        <v>0</v>
+      </c>
+      <c r="G56" s="26">
+        <v>19</v>
+      </c>
+      <c r="H56" s="26">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" s="26">
+        <v>375</v>
+      </c>
+      <c r="E57" s="26">
+        <v>3.909999999999954</v>
+      </c>
+      <c r="F57" s="26">
+        <v>0</v>
+      </c>
+      <c r="G57" s="26">
+        <v>0</v>
+      </c>
+      <c r="H57" s="26">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="26">
+        <v>800</v>
+      </c>
+      <c r="E58" s="26">
+        <v>0.9699999999999136</v>
+      </c>
+      <c r="F58" s="26">
+        <v>0</v>
+      </c>
+      <c r="G58" s="26">
+        <v>0</v>
+      </c>
+      <c r="H58" s="26">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D59" s="26">
+        <v>584</v>
+      </c>
+      <c r="E59" s="26">
+        <v>6.9999999999936335E-2</v>
+      </c>
+      <c r="F59" s="26">
+        <v>0</v>
+      </c>
+      <c r="G59" s="26">
+        <v>0</v>
+      </c>
+      <c r="H59" s="26">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" s="26">
+        <v>834</v>
+      </c>
+      <c r="E60" s="26">
+        <v>0</v>
+      </c>
+      <c r="F60" s="26">
+        <v>0</v>
+      </c>
+      <c r="G60" s="26">
+        <v>0</v>
+      </c>
+      <c r="H60" s="26">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D61" s="26">
+        <v>771</v>
+      </c>
+      <c r="E61" s="26">
+        <v>0.84999999999990905</v>
+      </c>
+      <c r="F61" s="26">
+        <v>0</v>
+      </c>
+      <c r="G61" s="26">
+        <v>0</v>
+      </c>
+      <c r="H61" s="26">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="24">
+        <v>3364</v>
+      </c>
+      <c r="E62" s="24">
+        <v>-23.049999999999955</v>
+      </c>
+      <c r="F62" s="24">
+        <v>0</v>
+      </c>
+      <c r="G62" s="24">
+        <v>463</v>
+      </c>
+      <c r="H62" s="24">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E9:E43">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AA802E-A9D6-054F-AF82-506F90B54BD0}">
+  <dimension ref="A1:J47"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.33203125" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="29"/>
+    </row>
+    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="27">
+        <v>64018.419999999991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="F11" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="28">
+        <v>19</v>
+      </c>
+      <c r="F13" s="28">
+        <v>0</v>
+      </c>
+      <c r="G13" s="28">
+        <v>85</v>
+      </c>
+      <c r="I13" s="28">
+        <v>250</v>
+      </c>
+      <c r="J13" s="28">
+        <v>18835</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="28">
+        <v>19</v>
+      </c>
+      <c r="F14" s="28">
+        <v>0</v>
+      </c>
+      <c r="G14" s="28">
+        <v>110</v>
+      </c>
+      <c r="I14" s="28">
+        <v>398.5</v>
+      </c>
+      <c r="J14" s="28">
+        <v>20035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="28">
+        <v>19</v>
+      </c>
+      <c r="F15" s="28">
+        <v>0</v>
+      </c>
+      <c r="G15" s="28">
+        <v>125</v>
+      </c>
+      <c r="I15" s="28">
+        <v>597</v>
+      </c>
+      <c r="J15" s="28">
+        <v>21020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="28">
+        <v>19</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="28">
+        <v>19</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="28">
+        <v>261</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="28">
+        <v>19</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="28">
+        <v>40</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="28">
+        <v>173</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="28">
+        <v>40</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="28">
+        <v>312</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="28">
+        <v>115</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="28">
+        <v>40</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="28">
+        <v>40</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="28">
+        <v>40</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="28">
+        <v>29</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="28">
+        <v>136</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="28">
+        <v>96</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="28">
+        <v>29</v>
+      </c>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="28">
+        <v>29</v>
+      </c>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="28">
+        <v>29</v>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="28">
+        <v>29</v>
+      </c>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="28">
+        <v>207</v>
+      </c>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="28">
+        <v>119</v>
+      </c>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="28">
+        <v>505</v>
+      </c>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="28">
+        <v>42</v>
+      </c>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="28">
+        <v>42</v>
+      </c>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="28">
+        <v>42</v>
+      </c>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="28">
+        <v>42</v>
+      </c>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="28">
+        <v>42</v>
+      </c>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="28">
+        <v>60</v>
+      </c>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="28">
+        <v>71</v>
+      </c>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="28">
+        <v>118</v>
+      </c>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="28">
+        <v>483</v>
+      </c>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+    </row>
+    <row r="47" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="27">
+        <v>39</v>
+      </c>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982632CE-1216-274E-9D05-AAD93719E69F}">
   <dimension ref="B2:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="118" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -766,15 +5796,14 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="17"/>
-      <c r="C8" s="18">
+      <c r="C8" s="5">
         <f>SUM(C3:C7)</f>
         <v>3364</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="5">
         <f>SUM(E3:E7)</f>
         <v>3364</v>
       </c>
@@ -805,7 +5834,7 @@
       </c>
       <c r="E11" s="9">
         <f>SUMIF($C$23:$C$57, B11, $E$23:$E$57)</f>
-        <v>750</v>
+        <v>731</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -820,7 +5849,7 @@
       </c>
       <c r="E12" s="9">
         <f t="shared" ref="E12:E19" si="1">SUMIF($C$23:$C$57, B12, $E$23:$E$57)</f>
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -835,7 +5864,7 @@
       </c>
       <c r="E13" s="9">
         <f t="shared" si="1"/>
-        <v>636</v>
+        <v>855</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -850,7 +5879,7 @@
       </c>
       <c r="E14" s="9">
         <f t="shared" si="1"/>
-        <v>336</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -880,7 +5909,7 @@
       </c>
       <c r="E16" s="9">
         <f t="shared" si="1"/>
-        <v>259</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -910,7 +5939,7 @@
       </c>
       <c r="E18" s="9">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -925,7 +5954,7 @@
       </c>
       <c r="E19" s="16">
         <f t="shared" si="1"/>
-        <v>259</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
@@ -958,7 +5987,7 @@
         <v>26</v>
       </c>
       <c r="H22" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -972,15 +6001,15 @@
         <v>16.010000000000002</v>
       </c>
       <c r="E23" s="6">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F23" s="2">
         <f>E23*D23</f>
-        <v>608.38000000000011</v>
+        <v>304.19000000000005</v>
       </c>
       <c r="G23" s="9">
         <f>ROUND($H$22*$C$3,0)</f>
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H23" s="2" t="str">
         <f ca="1">_xlfn.FORMULATEXT(G23)</f>
@@ -998,15 +6027,15 @@
         <v>32.58</v>
       </c>
       <c r="E24" s="6">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" ref="F24:F57" si="2">E24*D24</f>
-        <v>1238.04</v>
+        <v>619.02</v>
       </c>
       <c r="G24" s="9">
-        <f t="shared" ref="G24:G30" si="3">ROUND($H$22*$C$3,0)</f>
-        <v>38</v>
+        <f t="shared" ref="G24:G29" si="3">ROUND($H$22*$C$3,0)</f>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -1020,15 +6049,15 @@
         <v>26.64</v>
       </c>
       <c r="E25" s="6">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="2"/>
-        <v>1012.32</v>
+        <v>506.16</v>
       </c>
       <c r="G25" s="9">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -1042,15 +6071,15 @@
         <v>25.15</v>
       </c>
       <c r="E26" s="6">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="2"/>
-        <v>955.69999999999993</v>
+        <v>477.84999999999997</v>
       </c>
       <c r="G26" s="9">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -1064,15 +6093,15 @@
         <v>20.170000000000002</v>
       </c>
       <c r="E27" s="6">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="2"/>
-        <v>766.46</v>
+        <v>383.23</v>
       </c>
       <c r="G27" s="9">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -1086,37 +6115,37 @@
         <v>12.9</v>
       </c>
       <c r="E28" s="6">
-        <v>147</v>
+        <v>261</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="2"/>
-        <v>1896.3</v>
+        <v>3366.9</v>
       </c>
       <c r="G28" s="9">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="17">
         <v>19.75</v>
       </c>
-      <c r="E29" s="22">
-        <v>38</v>
-      </c>
-      <c r="F29" s="21">
+      <c r="E29" s="19">
+        <v>19</v>
+      </c>
+      <c r="F29" s="18">
         <f t="shared" si="2"/>
-        <v>750.5</v>
-      </c>
-      <c r="G29" s="23">
+        <v>375.25</v>
+      </c>
+      <c r="G29" s="20">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -1130,15 +6159,15 @@
         <v>17.71</v>
       </c>
       <c r="E30" s="6">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="2"/>
-        <v>1416.8000000000002</v>
+        <v>708.40000000000009</v>
       </c>
       <c r="G30" s="9">
         <f>ROUND($H$22*$C$4,0)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H30" s="2" t="str">
         <f ca="1">_xlfn.FORMULATEXT(G30)</f>
@@ -1156,15 +6185,15 @@
         <v>16.690000000000001</v>
       </c>
       <c r="E31" s="6">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" si="2"/>
-        <v>2186.3900000000003</v>
+        <v>2887.3700000000003</v>
       </c>
       <c r="G31" s="9">
-        <f t="shared" ref="G31:G38" si="4">ROUND($H$22*$C$4,0)</f>
-        <v>80</v>
+        <f t="shared" ref="G31:G37" si="4">ROUND($H$22*$C$4,0)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -1178,15 +6207,15 @@
         <v>23.56</v>
       </c>
       <c r="E32" s="6">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" si="2"/>
-        <v>1884.8</v>
+        <v>942.4</v>
       </c>
       <c r="G32" s="9">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -1200,15 +6229,15 @@
         <v>15.33</v>
       </c>
       <c r="E33" s="6">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" si="2"/>
-        <v>1226.4000000000001</v>
+        <v>4782.96</v>
       </c>
       <c r="G33" s="9">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -1222,15 +6251,15 @@
         <v>19.41</v>
       </c>
       <c r="E34" s="6">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="2"/>
-        <v>1552.8</v>
+        <v>2232.15</v>
       </c>
       <c r="G34" s="9">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -1244,15 +6273,15 @@
         <v>27.19</v>
       </c>
       <c r="E35" s="6">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="2"/>
-        <v>2175.2000000000003</v>
+        <v>1087.6000000000001</v>
       </c>
       <c r="G35" s="9">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -1266,37 +6295,37 @@
         <v>21.68</v>
       </c>
       <c r="E36" s="6">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="2"/>
-        <v>4097.5199999999995</v>
+        <v>867.2</v>
       </c>
       <c r="G36" s="9">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="17">
         <v>22.74</v>
       </c>
-      <c r="E37" s="22">
-        <v>80</v>
-      </c>
-      <c r="F37" s="21">
+      <c r="E37" s="19">
+        <v>40</v>
+      </c>
+      <c r="F37" s="18">
         <f t="shared" si="2"/>
-        <v>1819.1999999999998</v>
-      </c>
-      <c r="G37" s="23">
+        <v>909.59999999999991</v>
+      </c>
+      <c r="G37" s="20">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -1310,15 +6339,15 @@
         <v>15.92</v>
       </c>
       <c r="E38" s="6">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="2"/>
-        <v>923.36</v>
+        <v>461.68</v>
       </c>
       <c r="G38" s="9">
         <f>ROUND($H$22*$C$5,0)</f>
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="H38" s="2" t="str">
         <f ca="1">_xlfn.FORMULATEXT(G38)</f>
@@ -1336,15 +6365,15 @@
         <v>17.59</v>
       </c>
       <c r="E39" s="6">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="F39" s="2">
         <f t="shared" si="2"/>
-        <v>3131.02</v>
+        <v>2392.2399999999998</v>
       </c>
       <c r="G39" s="9">
-        <f t="shared" ref="G39:G46" si="5">ROUND($H$22*$C$5,0)</f>
-        <v>58</v>
+        <f t="shared" ref="G39:G45" si="5">ROUND($H$22*$C$5,0)</f>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -1358,15 +6387,15 @@
         <v>22.98</v>
       </c>
       <c r="E40" s="6">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="F40" s="2">
         <f t="shared" si="2"/>
-        <v>1332.84</v>
+        <v>2206.08</v>
       </c>
       <c r="G40" s="9">
         <f t="shared" si="5"/>
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -1380,15 +6409,15 @@
         <v>20.68</v>
       </c>
       <c r="E41" s="6">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="F41" s="2">
         <f t="shared" si="2"/>
-        <v>1199.44</v>
+        <v>599.72</v>
       </c>
       <c r="G41" s="9">
         <f t="shared" si="5"/>
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -1402,15 +6431,15 @@
         <v>27.04</v>
       </c>
       <c r="E42" s="6">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="F42" s="2">
         <f t="shared" si="2"/>
-        <v>1568.32</v>
+        <v>784.16</v>
       </c>
       <c r="G42" s="9">
         <f t="shared" si="5"/>
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -1424,15 +6453,15 @@
         <v>24.75</v>
       </c>
       <c r="E43" s="6">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="F43" s="2">
         <f t="shared" si="2"/>
-        <v>1435.5</v>
+        <v>717.75</v>
       </c>
       <c r="G43" s="9">
         <f t="shared" si="5"/>
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -1446,37 +6475,37 @@
         <v>18.84</v>
       </c>
       <c r="E44" s="6">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="F44" s="2">
         <f t="shared" si="2"/>
-        <v>1092.72</v>
+        <v>546.36</v>
       </c>
       <c r="G44" s="9">
         <f t="shared" si="5"/>
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="17">
         <v>19.760000000000002</v>
       </c>
-      <c r="E45" s="22">
-        <v>58</v>
-      </c>
-      <c r="F45" s="21">
+      <c r="E45" s="19">
+        <v>207</v>
+      </c>
+      <c r="F45" s="18">
         <f t="shared" si="2"/>
-        <v>1146.0800000000002</v>
-      </c>
-      <c r="G45" s="23">
+        <v>4090.32</v>
+      </c>
+      <c r="G45" s="20">
         <f t="shared" si="5"/>
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -1490,15 +6519,15 @@
         <v>14.9</v>
       </c>
       <c r="E46" s="6">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="F46" s="2">
         <f t="shared" si="2"/>
-        <v>1236.7</v>
+        <v>1773.1000000000001</v>
       </c>
       <c r="G46" s="9">
         <f>ROUND($H$22*$C$6,0)</f>
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="H46" s="2" t="str">
         <f ca="1">_xlfn.FORMULATEXT(G46)</f>
@@ -1516,15 +6545,15 @@
         <v>23.05</v>
       </c>
       <c r="E47" s="6">
-        <v>111</v>
+        <v>505</v>
       </c>
       <c r="F47" s="2">
         <f t="shared" si="2"/>
-        <v>2558.5500000000002</v>
+        <v>11640.25</v>
       </c>
       <c r="G47" s="9">
-        <f t="shared" ref="G47:G53" si="6">ROUND($H$22*$C$6,0)</f>
-        <v>83</v>
+        <f t="shared" ref="G47:G52" si="6">ROUND($H$22*$C$6,0)</f>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -1538,15 +6567,15 @@
         <v>32.35</v>
       </c>
       <c r="E48" s="6">
-        <v>226</v>
+        <v>42</v>
       </c>
       <c r="F48" s="2">
         <f t="shared" si="2"/>
-        <v>7311.1</v>
+        <v>1358.7</v>
       </c>
       <c r="G48" s="9">
         <f t="shared" si="6"/>
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -1560,15 +6589,15 @@
         <v>25.13</v>
       </c>
       <c r="E49" s="6">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="F49" s="2">
         <f t="shared" si="2"/>
-        <v>2085.79</v>
+        <v>1055.46</v>
       </c>
       <c r="G49" s="9">
         <f t="shared" si="6"/>
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -1582,15 +6611,15 @@
         <v>24.25</v>
       </c>
       <c r="E50" s="6">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="F50" s="2">
         <f t="shared" si="2"/>
-        <v>2012.75</v>
+        <v>1018.5</v>
       </c>
       <c r="G50" s="9">
         <f t="shared" si="6"/>
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -1604,37 +6633,37 @@
         <v>21.75</v>
       </c>
       <c r="E51" s="6">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="F51" s="2">
         <f t="shared" si="2"/>
-        <v>3588.75</v>
+        <v>913.5</v>
       </c>
       <c r="G51" s="9">
         <f t="shared" si="6"/>
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="17">
         <v>22.48</v>
       </c>
-      <c r="E52" s="22">
-        <v>83</v>
-      </c>
-      <c r="F52" s="21">
+      <c r="E52" s="19">
+        <v>42</v>
+      </c>
+      <c r="F52" s="18">
         <f t="shared" si="2"/>
-        <v>1865.8400000000001</v>
-      </c>
-      <c r="G52" s="23">
+        <v>944.16</v>
+      </c>
+      <c r="G52" s="20">
         <f t="shared" si="6"/>
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -1648,15 +6677,15 @@
         <v>15.47</v>
       </c>
       <c r="E53" s="6">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2">
         <f t="shared" si="2"/>
-        <v>1191.19</v>
+        <v>928.2</v>
       </c>
       <c r="G53" s="9">
         <f>ROUND($H$22*$C$7,0)</f>
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="H53" s="2" t="str">
         <f ca="1">_xlfn.FORMULATEXT(G53)</f>
@@ -1674,15 +6703,15 @@
         <v>22.2</v>
       </c>
       <c r="E54" s="6">
-        <v>463</v>
+        <v>71</v>
       </c>
       <c r="F54" s="2">
         <f t="shared" si="2"/>
-        <v>10278.6</v>
+        <v>1576.2</v>
       </c>
       <c r="G54" s="9">
         <f t="shared" ref="G54:G57" si="7">ROUND($H$22*$C$7,0)</f>
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -1696,15 +6725,15 @@
         <v>17.39</v>
       </c>
       <c r="E55" s="6">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="F55" s="2">
         <f t="shared" si="2"/>
-        <v>1339.03</v>
+        <v>2052.02</v>
       </c>
       <c r="G55" s="9">
         <f t="shared" si="7"/>
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -1718,15 +6747,15 @@
         <v>15.96</v>
       </c>
       <c r="E56" s="6">
-        <v>77</v>
+        <v>483</v>
       </c>
       <c r="F56" s="2">
         <f t="shared" si="2"/>
-        <v>1228.92</v>
+        <v>7708.68</v>
       </c>
       <c r="G56" s="9">
         <f t="shared" si="7"/>
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1740,27 +6769,28 @@
         <v>20.54</v>
       </c>
       <c r="E57" s="13">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="F57" s="12">
         <f t="shared" si="2"/>
-        <v>1581.58</v>
+        <v>801.06</v>
       </c>
       <c r="G57" s="9">
         <f t="shared" si="7"/>
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="33" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="E58" s="25" t="s">
+      <c r="E58" s="21" t="s">
         <v>25</v>
       </c>
       <c r="F58" s="14">
         <f>SUM(F23:F57)</f>
-        <v>71694.89</v>
+        <v>64018.419999999991</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>